--- a/resource/20180927ribaomember.xlsx
+++ b/resource/20180927ribaomember.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ririririribao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\个人文档\code\Kumapocket\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,9 +25,374 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>小七-采编-娱乐</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+  <si>
+    <t>靖-ALL</t>
+  </si>
+  <si>
+    <t>猫猫-女王大人</t>
+  </si>
+  <si>
+    <t>摩卡-文案-新闻</t>
+  </si>
+  <si>
+    <t>乱来-采编-娱乐</t>
+  </si>
+  <si>
+    <t>遇见-编审-娱乐</t>
+  </si>
+  <si>
+    <t>卡车-文案-新闻</t>
+  </si>
+  <si>
+    <t>墨-采编-新闻</t>
+  </si>
+  <si>
+    <t>CE-采编-新闻</t>
+  </si>
+  <si>
+    <t>嘟嘟-采编-娱乐</t>
+  </si>
+  <si>
+    <t>汉子-编审-娱乐</t>
+  </si>
+  <si>
+    <t>杉杉-采编-新闻</t>
+  </si>
+  <si>
+    <t>莲叶-美工-新闻</t>
+  </si>
+  <si>
+    <t>圈儿-美工-娱乐</t>
+  </si>
+  <si>
+    <t>大头-美工-娱乐</t>
+  </si>
+  <si>
+    <t>豆芽-编审-娱乐</t>
+  </si>
+  <si>
+    <t>瓶子-编审-娱乐</t>
+  </si>
+  <si>
+    <t>阿鸾-文案-新闻</t>
+  </si>
+  <si>
+    <t>希希-美工-新闻</t>
+  </si>
+  <si>
+    <t>小举-采编-娱乐</t>
+  </si>
+  <si>
+    <t>无忧-编审-娱乐</t>
+  </si>
+  <si>
+    <t>笑-美工-娱乐（1</t>
+  </si>
+  <si>
+    <t>芒果-美攻-娱乐</t>
+  </si>
+  <si>
+    <t>桢子-文案-娱乐</t>
+  </si>
+  <si>
+    <t>菜菜-美工-新闻</t>
+  </si>
+  <si>
+    <t>明明-采编-新闻</t>
+  </si>
+  <si>
+    <t>屁屁-采编-新闻</t>
+  </si>
+  <si>
+    <t>壹-美工-新闻</t>
+  </si>
+  <si>
+    <t>可欣-娱乐-采编</t>
+  </si>
+  <si>
+    <t>紫诗-采编-娱乐</t>
+  </si>
+  <si>
+    <t>酷酷-采编-娱乐</t>
+  </si>
+  <si>
+    <t>蓝宝-美攻-娱乐</t>
+  </si>
+  <si>
+    <t>众众-文案-娱乐</t>
+  </si>
+  <si>
+    <t>葡萄-文案-娱乐</t>
+  </si>
+  <si>
+    <t>Hoscar-美工-新闻</t>
+  </si>
+  <si>
+    <t>薇薇-编审-娱乐</t>
+  </si>
+  <si>
+    <t>颖儿-文案-新闻</t>
+  </si>
+  <si>
+    <t>天蓝-文案-新闻</t>
+  </si>
+  <si>
+    <t>豆豆-文案-娱乐</t>
+  </si>
+  <si>
+    <t>白白-文案-娱乐</t>
+  </si>
+  <si>
+    <t>早饭-采编-娱乐</t>
+  </si>
+  <si>
+    <t>只只-采编-娱乐</t>
+  </si>
+  <si>
+    <t>萌萌-采编-娱乐</t>
+  </si>
+  <si>
+    <t>星球-采编-娱乐 </t>
+  </si>
+  <si>
+    <t>白糖-采编-娱乐</t>
+  </si>
+  <si>
+    <t>西瓜-采编-新闻</t>
+  </si>
+  <si>
+    <t>七七-采编-娱乐</t>
+  </si>
+  <si>
+    <t>法妮-娱乐-文案</t>
+  </si>
+  <si>
+    <t>和颜-采编-娱乐</t>
+  </si>
+  <si>
+    <t>阿卓-采编-娱乐</t>
+  </si>
+  <si>
+    <t>囧囧-采编-娱乐</t>
+  </si>
+  <si>
+    <t>浅浅-采编-娱乐</t>
+  </si>
+  <si>
+    <t>五五-娱乐-采编</t>
+  </si>
+  <si>
+    <t>易木-采编-娱乐</t>
+  </si>
+  <si>
+    <t>11-采编-娱乐</t>
+  </si>
+  <si>
+    <t>南瓜-美工-娱乐</t>
+  </si>
+  <si>
+    <t>酸奶-文案-新闻</t>
+  </si>
+  <si>
+    <t>米饭-文案-新闻</t>
+  </si>
+  <si>
+    <t>凌空-采编-娱乐</t>
+  </si>
+  <si>
+    <t>晴仔-采编-娱乐</t>
+  </si>
+  <si>
+    <t>鹅-采编-新闻</t>
+  </si>
+  <si>
+    <t>哈哈-美工-新闻</t>
+  </si>
+  <si>
+    <t>地球-文案-娱乐</t>
+  </si>
+  <si>
+    <t>果酱-采编-娱乐</t>
+  </si>
+  <si>
+    <t>小明-采编-新闻</t>
+  </si>
+  <si>
+    <t>银子-美工-新闻</t>
+  </si>
+  <si>
+    <t>咻咻-采编-新闻</t>
+  </si>
+  <si>
+    <t>Alice-娱乐-文案</t>
+  </si>
+  <si>
+    <t>瓜瓜-编审-娱乐</t>
+  </si>
+  <si>
+    <t>毛毛-文案-娱乐</t>
+  </si>
+  <si>
+    <t>小月-新闻-采编</t>
+  </si>
+  <si>
+    <t>kaka-采编审-娱乐</t>
+  </si>
+  <si>
+    <t>商耳-编审-娱乐</t>
+  </si>
+  <si>
+    <t>哈老师-采编-娱</t>
+  </si>
+  <si>
+    <t>镜子-编审-娱乐</t>
+  </si>
+  <si>
+    <t>盘子-编审-娱乐</t>
+  </si>
+  <si>
+    <t>小蜥蜴-文案-新</t>
+  </si>
+  <si>
+    <t>本本-文案-娱乐</t>
+  </si>
+  <si>
+    <t>草男–文案–娱</t>
+  </si>
+  <si>
+    <t>扣子-美攻-新闻</t>
+  </si>
+  <si>
+    <t>婉婉-美工-娱乐</t>
+  </si>
+  <si>
+    <t>蛋挞-美工-娱乐</t>
+  </si>
+  <si>
+    <t>西西-编审-娱乐</t>
+  </si>
+  <si>
+    <t>薯条-采编-娱乐</t>
+  </si>
+  <si>
+    <t>白羽-美工-娱乐</t>
+  </si>
+  <si>
+    <t>欧欧兔-采编-娱</t>
+  </si>
+  <si>
+    <t>铃子-美工-娱乐</t>
+  </si>
+  <si>
+    <t>哥斯拉-采编-娱</t>
+  </si>
+  <si>
+    <t>苹果-美工-娱乐</t>
+  </si>
+  <si>
+    <t>平方-文案-娱乐</t>
+  </si>
+  <si>
+    <t>抖抖-采编-娱乐</t>
+  </si>
+  <si>
+    <t>木子-采编-娱乐</t>
+  </si>
+  <si>
+    <t>小兰-编审-娱乐</t>
+  </si>
+  <si>
+    <t>砳(lè)砳-采编-</t>
+  </si>
+  <si>
+    <t>小千栗-文案-娱</t>
+  </si>
+  <si>
+    <t>添福-美工-娱乐</t>
+  </si>
+  <si>
+    <t>阿biu-文案-新闻</t>
+  </si>
+  <si>
+    <t>ee-美编-新闻</t>
+  </si>
+  <si>
+    <t>施工-文案-新闻</t>
+  </si>
+  <si>
+    <t>水母-采编-娱乐</t>
+  </si>
+  <si>
+    <t>能吃-文案-娱乐</t>
+  </si>
+  <si>
+    <t>生生-采编-娱乐</t>
+  </si>
+  <si>
+    <t>219-文案-娱乐</t>
+  </si>
+  <si>
+    <t>衣莫-编审-娱乐</t>
+  </si>
+  <si>
+    <t>段段-娱乐-文案</t>
+  </si>
+  <si>
+    <t>娱乐-采编-柒儿</t>
+  </si>
+  <si>
+    <t>卷卷-编审-娱乐</t>
+  </si>
+  <si>
+    <t>二喜-编审-娱乐</t>
+  </si>
+  <si>
+    <t>铲铲-编审-娱乐</t>
+  </si>
+  <si>
+    <t>大溪-美工-娱乐</t>
+  </si>
+  <si>
+    <t>你妮–采编–娱</t>
+  </si>
+  <si>
+    <t>小天使-编审-娱</t>
+  </si>
+  <si>
+    <t>由希-采编-新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶杯-文案-娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲸鱼_xDC33_-采编-新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like妹妹-美攻-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕉子-美编-新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬查-文案-新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池-美工-新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨子-采编-娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易木-采编-娱乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,9 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -370,11 +734,623 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A119" sqref="A1:A119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>